--- a/grupos/6APM - Estadisticos 2020.xlsx
+++ b/grupos/6APM - Estadisticos 2020.xlsx
@@ -2370,6 +2370,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3226,7 +3227,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3633,6 +3635,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/6APM - Estadisticos 2020.xlsx
+++ b/grupos/6APM - Estadisticos 2020.xlsx
@@ -146,7 +146,7 @@
     <t>Por_Blancos</t>
   </si>
   <si>
-    <t>Rivera Cruz Ezequiel</t>
+    <t>Rodriguez Roman Marisol</t>
   </si>
   <si>
     <t>Ochoa Martínez Mayeli</t>

--- a/grupos/6APM - Estadisticos 2020.xlsx
+++ b/grupos/6APM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="113">
   <si>
     <t>Materia</t>
   </si>
@@ -146,24 +146,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Ochoa Martínez Mayeli</t>
+  </si>
+  <si>
+    <t>Jimenez Nieto Enrique</t>
+  </si>
+  <si>
+    <t>Herrera Serrano Mayra Iliana</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Duran Amezcua Maria Angelica</t>
+  </si>
+  <si>
     <t>Rodriguez Roman Marisol</t>
   </si>
   <si>
-    <t>Ochoa Martínez Mayeli</t>
-  </si>
-  <si>
-    <t>Jimenez Nieto Enrique</t>
-  </si>
-  <si>
-    <t>Herrera Serrano Mayra Iliana</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Duran Amezcua Maria Angelica</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -188,15 +188,33 @@
     <t>BERNABE</t>
   </si>
   <si>
+    <t>CABELLO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
     <t>DIAZ</t>
   </si>
   <si>
+    <t>DURAN</t>
+  </si>
+  <si>
     <t>ECHEVERRIA</t>
   </si>
   <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
+    <t>GASCA</t>
+  </si>
+  <si>
     <t>GIL</t>
   </si>
   <si>
@@ -206,9 +224,18 @@
     <t>HERRERA</t>
   </si>
   <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>LOMAN</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
@@ -218,15 +245,30 @@
     <t>REYES</t>
   </si>
   <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
+    <t>CORTES</t>
+  </si>
+  <si>
     <t>ROSAS</t>
   </si>
   <si>
+    <t>AREVALO</t>
+  </si>
+  <si>
     <t>ARENAS</t>
   </si>
   <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
     <t>BANDALA</t>
   </si>
   <si>
@@ -236,9 +278,18 @@
     <t>USCANGA</t>
   </si>
   <si>
+    <t>COTLAME</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
     <t>ISLAS</t>
   </si>
   <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
     <t>GALLARDO</t>
   </si>
   <si>
@@ -254,15 +305,33 @@
     <t>GUILLERMO</t>
   </si>
   <si>
+    <t>MARINA IVETH</t>
+  </si>
+  <si>
+    <t>MARY ESTEFANY</t>
+  </si>
+  <si>
+    <t>MARIA CELESTE</t>
+  </si>
+  <si>
     <t>VICTOR ALEXANDER</t>
   </si>
   <si>
+    <t>LUIS GABRIEL</t>
+  </si>
+  <si>
     <t>GABRIEL JHERAN</t>
   </si>
   <si>
+    <t>MARY JOSE</t>
+  </si>
+  <si>
     <t>JOSUA</t>
   </si>
   <si>
+    <t>ESTEFANI JHOSSELYNE</t>
+  </si>
+  <si>
     <t>AELEN</t>
   </si>
   <si>
@@ -275,88 +344,19 @@
     <t>JAVIER</t>
   </si>
   <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>MARIA INGRID</t>
+  </si>
+  <si>
     <t>JOSE GUADALUPE</t>
   </si>
   <si>
+    <t>ELTHON ALAIN</t>
+  </si>
+  <si>
     <t>CARLOS ALBERTO</t>
-  </si>
-  <si>
-    <t>CABELLO</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>DURAN</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>LOMAN</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>AREVALO</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>COTLAME</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>MARINA IVETH</t>
-  </si>
-  <si>
-    <t>MARY ESTEFANY</t>
-  </si>
-  <si>
-    <t>MARIA CELESTE</t>
-  </si>
-  <si>
-    <t>LUIS GABRIEL</t>
-  </si>
-  <si>
-    <t>MARY JOSE</t>
-  </si>
-  <si>
-    <t>ESTEFANI JHOSSELYNE</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>MARIA INGRID</t>
-  </si>
-  <si>
-    <t>ELTHON ALAIN</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -896,13 +896,13 @@
         <v>6</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -911,7 +911,7 @@
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -937,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -952,16 +952,16 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -996,7 +996,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1020,16 +1020,16 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1073,13 +1073,13 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -1088,7 +1088,7 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1132,22 +1132,22 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K9">
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1191,22 +1191,22 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1232,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -1250,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1265,7 +1265,7 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1309,13 +1309,13 @@
         <v>9</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -1324,7 +1324,7 @@
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1350,7 +1350,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1368,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1383,7 +1383,7 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1427,13 +1427,13 @@
         <v>6</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I14">
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K14">
         <v>-1</v>
@@ -1442,7 +1442,7 @@
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1468,7 +1468,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -1486,13 +1486,13 @@
         <v>6</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K15">
         <v>-1</v>
@@ -1501,7 +1501,7 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1545,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1557,10 +1557,10 @@
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1586,7 +1586,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1604,13 +1604,13 @@
         <v>6</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1660,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -1678,7 +1678,7 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1719,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -1737,7 +1737,7 @@
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1763,13 +1763,13 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -1781,7 +1781,7 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1840,22 +1840,22 @@
         <v>7</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K21">
         <v>-1</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -1899,22 +1899,22 @@
         <v>9</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K22">
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -1958,22 +1958,22 @@
         <v>7</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>-1</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -1999,7 +1999,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -2058,7 +2058,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -2076,13 +2076,13 @@
         <v>6</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K25">
         <v>-1</v>
@@ -2091,7 +2091,7 @@
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2179,27 +2179,27 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>40.91</v>
       </c>
       <c r="G2">
+        <v>59.09</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="I2">
-        <v>13</v>
-      </c>
       <c r="J2">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2208,30 +2208,30 @@
         <v>22</v>
       </c>
       <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>59.09</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I3">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
+      <c r="J3">
         <v>40.91</v>
-      </c>
-      <c r="G3">
-        <v>59.09</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9.300000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="I4">
         <v>9</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -2272,30 +2272,30 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>59.09</v>
+        <v>63.64</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>18.18</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>40.91</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -2304,30 +2304,30 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>63.64</v>
+        <v>72.73</v>
       </c>
       <c r="G6">
-        <v>13.64</v>
+        <v>18.18</v>
       </c>
       <c r="H6">
         <v>6.6</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>22.73</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -2336,25 +2336,25 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>68.18000000000001</v>
+        <v>77.27</v>
       </c>
       <c r="G7">
         <v>9.09</v>
       </c>
       <c r="H7">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>22.73</v>
+        <v>13.64</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +2364,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2402,13 +2402,13 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>47</v>
@@ -2422,13 +2422,13 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2442,16 +2442,16 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2462,133 +2462,133 @@
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920354</v>
+        <v>18330050170140</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920357</v>
+        <v>18330050170140</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920355</v>
+        <v>18330051920354</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920355</v>
+        <v>18330051920354</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920355</v>
+        <v>18330051920354</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920355</v>
+        <v>18330051920357</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>47</v>
@@ -2596,99 +2596,99 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920363</v>
+        <v>18330051920357</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920363</v>
+        <v>18330051920357</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920363</v>
+        <v>18330051920355</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920457</v>
+        <v>18330051920355</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920457</v>
+        <v>18330051920355</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
@@ -2696,59 +2696,59 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920457</v>
+        <v>18330051920355</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920457</v>
+        <v>18330051920358</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920366</v>
+        <v>18330051920358</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
@@ -2756,279 +2756,279 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920368</v>
+        <v>18330051920358</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920368</v>
+        <v>18330051920360</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920371</v>
+        <v>18330051920360</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920371</v>
+        <v>18330051920362</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920371</v>
+        <v>18330051920362</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920371</v>
+        <v>18330051920363</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920371</v>
+        <v>18330051920363</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920370</v>
+        <v>18330051920363</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920370</v>
+        <v>18330051920363</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920370</v>
+        <v>18330051920440</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920370</v>
+        <v>18330051920440</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920370</v>
+        <v>18330051920440</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920123</v>
+        <v>18330051920457</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920123</v>
+        <v>18330051920457</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -3036,139 +3036,139 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920123</v>
+        <v>18330051920457</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920376</v>
+        <v>18330051920457</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920376</v>
+        <v>18330051920364</v>
       </c>
       <c r="B36" t="s">
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920376</v>
+        <v>18330051920364</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920376</v>
+        <v>18330051920364</v>
       </c>
       <c r="B38" t="s">
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920376</v>
+        <v>18330051920366</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920381</v>
+        <v>18330051920366</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
         <v>44</v>
@@ -3176,41 +3176,741 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920381</v>
+        <v>18330051920366</v>
       </c>
       <c r="B41" t="s">
         <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
+        <v>18330051920367</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>18330051920367</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>18330051920367</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>18330051920368</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>18330051920368</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>18330051920368</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>18330051920371</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>18330051920371</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>18330051920371</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>18330051920371</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>18330051920371</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>18330051920370</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>18330051920370</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>18330051920370</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>18330051920370</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>18330051920370</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>18330051920123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>18330051920123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>18330051920123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>18330051920123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>18330051920123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>18330051920372</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>18330051920372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>18330051920373</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>18330051920373</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>18330051920376</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>18330051920376</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>18330051920376</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>18330051920376</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>18330051920376</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>18330051920376</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>18330051920375</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>18330051920375</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
         <v>18330051920381</v>
       </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>18330051920381</v>
+      </c>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>18330051920381</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3250,67 +3950,67 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>18330051920371</v>
+        <v>18330050170140</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920370</v>
+        <v>18330051920371</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920376</v>
+        <v>18330051920370</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330050170140</v>
+        <v>18330051920376</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3318,36 +4018,36 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920355</v>
+        <v>18330051920457</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920457</v>
+        <v>18330051920355</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3355,67 +4055,67 @@
         <v>18330051920363</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920123</v>
+        <v>18330051920381</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920381</v>
+        <v>18330051920368</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920368</v>
+        <v>18330051920123</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3426,13 +4126,13 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3443,44 +4143,44 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920366</v>
+        <v>18330051920358</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920358</v>
+        <v>18330051920360</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3488,16 +4188,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920360</v>
+        <v>18330051920362</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3505,16 +4205,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920362</v>
+        <v>18330051920440</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3522,16 +4222,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920440</v>
+        <v>18330051920364</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3539,16 +4239,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920364</v>
+        <v>18330051920366</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3559,13 +4259,13 @@
         <v>18330051920367</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3576,13 +4276,13 @@
         <v>18330051920372</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3593,13 +4293,13 @@
         <v>18330051920373</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3610,13 +4310,13 @@
         <v>18330051920375</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3629,7 +4329,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3664,140 +4364,232 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920366</v>
+        <v>18330051920360</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920366</v>
+        <v>18330051920360</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920354</v>
+        <v>18330051920362</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920357</v>
+        <v>18330051920362</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920364</v>
+        <v>18330051920372</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920367</v>
+        <v>18330051920372</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920373</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920373</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920375</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920375</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6APM - Estadisticos 2020.xlsx
+++ b/grupos/6APM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="113">
   <si>
     <t>Materia</t>
   </si>
@@ -146,22 +146,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Jimenez Nieto Enrique</t>
+  </si>
+  <si>
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
-    <t>Jimenez Nieto Enrique</t>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Duran Amezcua Maria Angelica</t>
+  </si>
+  <si>
+    <t>Rodriguez Roman Marisol</t>
   </si>
   <si>
     <t>Herrera Serrano Mayra Iliana</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Duran Amezcua Maria Angelica</t>
-  </si>
-  <si>
-    <t>Rodriguez Roman Marisol</t>
   </si>
   <si>
     <t>NC</t>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -908,7 +908,7 @@
         <v>-1</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>6</v>
@@ -940,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -1017,7 +1017,7 @@
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -1085,7 +1085,7 @@
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1194,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -1235,7 +1235,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -1253,7 +1253,7 @@
         <v>7</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>-1</v>
@@ -1262,7 +1262,7 @@
         <v>-1</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1312,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -1353,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1371,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>-1</v>
@@ -1380,7 +1380,7 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -1439,7 +1439,7 @@
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M14">
         <v>6</v>
@@ -1489,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <v>7</v>
@@ -1498,7 +1498,7 @@
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M15">
         <v>6</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J16">
         <v>-1</v>
@@ -1589,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -1607,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -1616,7 +1616,7 @@
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -1784,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>-1</v>
@@ -1793,7 +1793,7 @@
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>-1</v>
@@ -1843,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J21">
         <v>8</v>
@@ -1902,7 +1902,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -1961,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J23">
         <v>6</v>
@@ -2002,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -2014,13 +2014,13 @@
         <v>5</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>-1</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <v>-1</v>
@@ -2061,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -2079,7 +2079,7 @@
         <v>9</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <v>6</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2176,30 +2176,27 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>40.91</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>59.09</v>
       </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
       <c r="I2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2208,30 +2205,30 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="H3">
-        <v>9.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>40.91</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -2240,30 +2237,30 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>59.09</v>
+        <v>54.55</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>27.27</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>40.91</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -2272,19 +2269,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>63.64</v>
+        <v>54.55</v>
       </c>
       <c r="G5">
-        <v>18.18</v>
+        <v>45.45</v>
       </c>
       <c r="H5">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -2295,7 +2292,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -2307,27 +2304,27 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>72.73</v>
       </c>
       <c r="G6">
-        <v>18.18</v>
+        <v>13.64</v>
       </c>
       <c r="H6">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>9.09</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -2336,25 +2333,25 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>77.27</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="G7">
-        <v>9.09</v>
+        <v>4.55</v>
       </c>
       <c r="H7">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>13.64</v>
+        <v>18.18</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +2361,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2408,10 +2405,10 @@
         <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2428,10 +2425,10 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2448,10 +2445,10 @@
         <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2468,10 +2465,10 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2488,10 +2485,10 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2508,7 +2505,7 @@
         <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -2528,7 +2525,7 @@
         <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
@@ -2536,159 +2533,159 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920354</v>
+        <v>18330051920357</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920354</v>
+        <v>18330051920357</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920357</v>
+        <v>18330051920355</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920357</v>
+        <v>18330051920355</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920357</v>
+        <v>18330051920355</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920355</v>
+        <v>18330051920358</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920355</v>
+        <v>18330051920360</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920355</v>
+        <v>18330051920362</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
@@ -2696,59 +2693,59 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920355</v>
+        <v>18330051920363</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920358</v>
+        <v>18330051920363</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920358</v>
+        <v>18330051920440</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
@@ -2756,59 +2753,59 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920358</v>
+        <v>18330051920440</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920360</v>
+        <v>18330051920457</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920360</v>
+        <v>18330051920457</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
@@ -2816,119 +2813,119 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920362</v>
+        <v>18330051920364</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920362</v>
+        <v>18330051920364</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920363</v>
+        <v>18330051920366</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920363</v>
+        <v>18330051920367</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920363</v>
+        <v>18330051920367</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920363</v>
+        <v>18330051920368</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -2936,19 +2933,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920440</v>
+        <v>18330051920371</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
@@ -2956,59 +2953,59 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920440</v>
+        <v>18330051920371</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920440</v>
+        <v>18330051920371</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920457</v>
+        <v>18330051920371</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
         <v>43</v>
@@ -3016,99 +3013,99 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920457</v>
+        <v>18330051920371</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920457</v>
+        <v>18330051920370</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920457</v>
+        <v>18330051920370</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920364</v>
+        <v>18330051920370</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920364</v>
+        <v>18330051920370</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
         <v>43</v>
@@ -3116,59 +3113,59 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920364</v>
+        <v>18330051920370</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920366</v>
+        <v>18330051920123</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920366</v>
+        <v>18330051920123</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
         <v>44</v>
@@ -3176,19 +3173,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920366</v>
+        <v>18330051920123</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -3196,59 +3193,59 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920367</v>
+        <v>18330051920372</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920367</v>
+        <v>18330051920373</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920367</v>
+        <v>18330051920376</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -3256,79 +3253,79 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920368</v>
+        <v>18330051920376</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920368</v>
+        <v>18330051920376</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920368</v>
+        <v>18330051920376</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920371</v>
+        <v>18330051920376</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -3336,582 +3333,62 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920371</v>
+        <v>18330051920375</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920371</v>
+        <v>18330051920381</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920371</v>
+        <v>18330051920381</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>18330051920371</v>
-      </c>
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>18330051920370</v>
-      </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>18330051920370</v>
-      </c>
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>18330051920370</v>
-      </c>
-      <c r="B55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>18330051920370</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>18330051920370</v>
-      </c>
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>18330051920123</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>18330051920123</v>
-      </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>18330051920123</v>
-      </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>18330051920123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920123</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920372</v>
-      </c>
-      <c r="B63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>18330051920372</v>
-      </c>
-      <c r="B64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>18330051920373</v>
-      </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>18330051920373</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>18330051920376</v>
-      </c>
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" t="s">
-        <v>110</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>18330051920376</v>
-      </c>
-      <c r="B68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>18330051920376</v>
-      </c>
-      <c r="B69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>18330051920376</v>
-      </c>
-      <c r="B70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>18330051920376</v>
-      </c>
-      <c r="B71" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" t="s">
-        <v>110</v>
-      </c>
-      <c r="E71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>18330051920376</v>
-      </c>
-      <c r="B72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" t="s">
-        <v>110</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>18330051920375</v>
-      </c>
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" t="s">
-        <v>111</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>18330051920375</v>
-      </c>
-      <c r="B74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" t="s">
-        <v>111</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>18330051920381</v>
-      </c>
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" t="s">
-        <v>112</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>18330051920381</v>
-      </c>
-      <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" t="s">
-        <v>112</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>18330051920381</v>
-      </c>
-      <c r="B77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" t="s">
-        <v>112</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3962,7 +3439,7 @@
         <v>91</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3979,7 +3456,7 @@
         <v>105</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3996,7 +3473,7 @@
         <v>106</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4013,21 +3490,21 @@
         <v>110</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920457</v>
+        <v>18330051920355</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -4035,33 +3512,33 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920355</v>
+        <v>18330051920123</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920363</v>
+        <v>18330051920357</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4069,16 +3546,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920381</v>
+        <v>18330051920363</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4086,155 +3563,155 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920368</v>
+        <v>18330051920440</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920123</v>
+        <v>18330051920457</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920354</v>
+        <v>18330051920364</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920357</v>
+        <v>18330051920367</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920358</v>
+        <v>18330051920381</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920360</v>
+        <v>18330051920354</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920362</v>
+        <v>18330051920358</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920440</v>
+        <v>18330051920360</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920364</v>
+        <v>18330051920362</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4251,24 +3728,24 @@
         <v>102</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920367</v>
+        <v>18330051920368</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4285,7 +3762,7 @@
         <v>108</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4302,7 +3779,7 @@
         <v>109</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4319,7 +3796,7 @@
         <v>111</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4329,7 +3806,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4359,237 +3836,306 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920360</v>
+        <v>18330051920357</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920360</v>
+        <v>18330051920357</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920362</v>
+        <v>18330051920440</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920362</v>
+        <v>18330051920440</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920372</v>
+        <v>18330051920366</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920372</v>
+        <v>18330051920366</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920373</v>
+        <v>18330051920354</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920373</v>
+        <v>18330051920358</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920375</v>
+        <v>18330051920360</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
+        <v>18330051920362</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920372</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920373</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
         <v>18330051920375</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>111</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6APM - Estadisticos 2020.xlsx
+++ b/grupos/6APM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="113">
   <si>
     <t>Materia</t>
   </si>
@@ -146,24 +146,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Ochoa Martínez Mayeli</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Duran Amezcua Maria Angelica</t>
+  </si>
+  <si>
+    <t>Rodriguez Roman Marisol</t>
+  </si>
+  <si>
+    <t>Herrera Serrano Mayra Iliana</t>
+  </si>
+  <si>
     <t>Jimenez Nieto Enrique</t>
   </si>
   <si>
-    <t>Ochoa Martínez Mayeli</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Duran Amezcua Maria Angelica</t>
-  </si>
-  <si>
-    <t>Rodriguez Roman Marisol</t>
-  </si>
-  <si>
-    <t>Herrera Serrano Mayra Iliana</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -179,15 +179,102 @@
     <t>AQUINO</t>
   </si>
   <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>DURAN</t>
+  </si>
+  <si>
+    <t>ECHEVERRIA</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>ALDUCIN</t>
+  </si>
+  <si>
+    <t>USCANGA</t>
+  </si>
+  <si>
+    <t>ISLAS</t>
+  </si>
+  <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
+    <t>JARED</t>
+  </si>
+  <si>
+    <t>PATRICIA MARLENE</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
+    <t>VICTOR ALEXANDER</t>
+  </si>
+  <si>
+    <t>LUIS GABRIEL</t>
+  </si>
+  <si>
+    <t>GABRIEL JHERAN</t>
+  </si>
+  <si>
+    <t>ESTEFANI JHOSSELYNE</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>UZZIEL</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>JOSE GUADALUPE</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
     <t>CABELLO</t>
   </si>
   <si>
@@ -197,114 +284,54 @@
     <t>DE LA CRUZ</t>
   </si>
   <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>DURAN</t>
-  </si>
-  <si>
-    <t>ECHEVERRIA</t>
-  </si>
-  <si>
     <t>ESPINOZA</t>
   </si>
   <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>GASCA</t>
-  </si>
-  <si>
     <t>GIL</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
     <t>LOMAN</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>PERALTA</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
     <t>GUZMAN</t>
   </si>
   <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
     <t>AREVALO</t>
   </si>
   <si>
     <t>ARENAS</t>
   </si>
   <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
     <t>BANDALA</t>
   </si>
   <si>
-    <t>ALDUCIN</t>
-  </si>
-  <si>
-    <t>USCANGA</t>
-  </si>
-  <si>
     <t>COTLAME</t>
   </si>
   <si>
     <t>CASTRO</t>
   </si>
   <si>
-    <t>ISLAS</t>
-  </si>
-  <si>
     <t>SOLANO</t>
   </si>
   <si>
-    <t>GALLARDO</t>
-  </si>
-  <si>
-    <t>JARED</t>
-  </si>
-  <si>
     <t>MELANI DARIANA</t>
   </si>
   <si>
-    <t>PATRICIA MARLENE</t>
-  </si>
-  <si>
-    <t>GUILLERMO</t>
-  </si>
-  <si>
     <t>MARINA IVETH</t>
   </si>
   <si>
@@ -314,49 +341,22 @@
     <t>MARIA CELESTE</t>
   </si>
   <si>
-    <t>VICTOR ALEXANDER</t>
-  </si>
-  <si>
-    <t>LUIS GABRIEL</t>
-  </si>
-  <si>
-    <t>GABRIEL JHERAN</t>
-  </si>
-  <si>
     <t>MARY JOSE</t>
   </si>
   <si>
     <t>JOSUA</t>
   </si>
   <si>
-    <t>ESTEFANI JHOSSELYNE</t>
-  </si>
-  <si>
     <t>AELEN</t>
   </si>
   <si>
-    <t>ALEX</t>
-  </si>
-  <si>
-    <t>UZZIEL</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
     <t>JULIAN</t>
   </si>
   <si>
     <t>MARIA INGRID</t>
   </si>
   <si>
-    <t>JOSE GUADALUPE</t>
-  </si>
-  <si>
     <t>ELTHON ALAIN</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO</t>
   </si>
 </sst>
 </file>
@@ -822,13 +822,13 @@
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -846,7 +846,7 @@
         <v>-1</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -905,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>6</v>
@@ -946,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>-1</v>
@@ -1023,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>8</v>
@@ -1082,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -1141,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L9">
         <v>8</v>
@@ -1200,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>9</v>
@@ -1241,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1259,7 +1259,7 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -1318,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>-1</v>
@@ -1359,7 +1359,7 @@
         <v>-1</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -1377,7 +1377,7 @@
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>6</v>
@@ -1430,13 +1430,13 @@
         <v>7</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J14">
         <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>6</v>
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -1554,7 +1554,7 @@
         <v>-1</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -1613,7 +1613,7 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L17">
         <v>6</v>
@@ -1648,13 +1648,13 @@
         <v>-1</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -1672,7 +1672,7 @@
         <v>-1</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -1707,13 +1707,13 @@
         <v>-1</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>-1</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -1731,7 +1731,7 @@
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L19">
         <v>-1</v>
@@ -1772,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -1790,7 +1790,7 @@
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L20">
         <v>6</v>
@@ -1849,7 +1849,7 @@
         <v>8</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>10</v>
@@ -1967,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L23">
         <v>8</v>
@@ -2008,7 +2008,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2026,7 +2026,7 @@
         <v>-1</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>-1</v>
@@ -2067,7 +2067,7 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -2085,7 +2085,7 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
         <v>-1</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2176,27 +2176,30 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>36.36</v>
       </c>
       <c r="G2">
-        <v>59.09</v>
+        <v>63.64</v>
+      </c>
+      <c r="H2">
+        <v>6.9</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2205,30 +2208,30 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F3">
+        <v>54.55</v>
+      </c>
+      <c r="G3">
+        <v>27.27</v>
+      </c>
+      <c r="H3">
+        <v>6.6</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
         <v>36.36</v>
-      </c>
-      <c r="G3">
-        <v>63.64</v>
-      </c>
-      <c r="H3">
-        <v>6.9</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>31.82</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -2240,27 +2243,27 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>54.55</v>
       </c>
       <c r="G4">
-        <v>27.27</v>
+        <v>45.45</v>
       </c>
       <c r="H4">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>36.36</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -2269,30 +2272,30 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>54.55</v>
+        <v>72.73</v>
       </c>
       <c r="G5">
-        <v>45.45</v>
+        <v>13.64</v>
       </c>
       <c r="H5">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>18.18</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -2301,30 +2304,30 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>72.73</v>
+        <v>86.36</v>
       </c>
       <c r="G6">
         <v>13.64</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>22.73</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -2333,25 +2336,25 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>18.18</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2364,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2399,16 +2402,16 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2419,16 +2422,16 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2439,16 +2442,16 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2459,16 +2462,16 @@
         <v>52</v>
       </c>
       <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2479,13 +2482,13 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -2493,19 +2496,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330050170140</v>
+        <v>18330051920357</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -2513,79 +2516,79 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920354</v>
+        <v>18330051920355</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920357</v>
+        <v>18330051920355</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
         <v>74</v>
       </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920357</v>
+        <v>18330051920363</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920355</v>
+        <v>18330051920440</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>42</v>
@@ -2593,39 +2596,39 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920355</v>
+        <v>18330051920457</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920355</v>
+        <v>18330051920367</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>43</v>
@@ -2633,39 +2636,39 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920358</v>
+        <v>18330051920371</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920360</v>
+        <v>18330051920371</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>42</v>
@@ -2673,79 +2676,79 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920362</v>
+        <v>18330051920371</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920363</v>
+        <v>18330051920371</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920363</v>
+        <v>18330051920370</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920440</v>
+        <v>18330051920370</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
@@ -2753,19 +2756,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920440</v>
+        <v>18330051920370</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
         <v>43</v>
@@ -2773,39 +2776,39 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920457</v>
+        <v>18330051920370</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920457</v>
+        <v>18330051920123</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
@@ -2813,79 +2816,79 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920364</v>
+        <v>18330051920123</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920364</v>
+        <v>18330051920376</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920366</v>
+        <v>18330051920376</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920367</v>
+        <v>18330051920376</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
         <v>82</v>
       </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -2893,19 +2896,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920367</v>
+        <v>18330051920376</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>44</v>
@@ -2913,482 +2916,22 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920368</v>
+        <v>18330051920381</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
         <v>83</v>
       </c>
-      <c r="D28" t="s">
-        <v>104</v>
-      </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>18330051920371</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>18330051920371</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>18330051920371</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>18330051920371</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>18330051920371</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>18330051920370</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>18330051920370</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>18330051920370</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>18330051920370</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>18330051920370</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>18330051920123</v>
-      </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>18330051920123</v>
-      </c>
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>18330051920123</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>18330051920372</v>
-      </c>
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>18330051920373</v>
-      </c>
-      <c r="B43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>18330051920376</v>
-      </c>
-      <c r="B44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>18330051920376</v>
-      </c>
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>18330051920376</v>
-      </c>
-      <c r="B46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>18330051920376</v>
-      </c>
-      <c r="B47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>18330051920376</v>
-      </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>18330051920375</v>
-      </c>
-      <c r="B49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>18330051920381</v>
-      </c>
-      <c r="B50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>18330051920381</v>
-      </c>
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3433,13 +2976,13 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3447,16 +2990,16 @@
         <v>18330051920371</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3464,16 +3007,16 @@
         <v>18330051920370</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3481,16 +3024,16 @@
         <v>18330051920376</v>
       </c>
       <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3498,16 +3041,16 @@
         <v>18330051920355</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3515,16 +3058,16 @@
         <v>18330051920123</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3532,16 +3075,16 @@
         <v>18330051920357</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3549,16 +3092,16 @@
         <v>18330051920363</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3566,16 +3109,16 @@
         <v>18330051920440</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3583,135 +3126,135 @@
         <v>18330051920457</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920364</v>
+        <v>18330051920367</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920367</v>
+        <v>18330051920381</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920381</v>
+        <v>18330051920354</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920354</v>
+        <v>18330051920358</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920358</v>
+        <v>18330051920360</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920360</v>
+        <v>18330051920362</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920362</v>
+        <v>18330051920364</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3719,16 +3262,16 @@
         <v>18330051920366</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3736,16 +3279,16 @@
         <v>18330051920368</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3753,16 +3296,16 @@
         <v>18330051920372</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3770,16 +3313,16 @@
         <v>18330051920373</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3787,16 +3330,16 @@
         <v>18330051920375</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3806,7 +3349,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3841,22 +3384,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920357</v>
+        <v>18330051920367</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -3864,91 +3407,91 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920357</v>
+        <v>18330051920367</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920440</v>
+        <v>18330051920368</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920440</v>
+        <v>18330051920368</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920366</v>
+        <v>18330051920357</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -3956,186 +3499,71 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920366</v>
+        <v>18330051920440</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920354</v>
+        <v>18330051920364</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920358</v>
+        <v>18330051920366</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
       </c>
       <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920360</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920362</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920372</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920373</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920375</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6APM - Estadisticos 2020.xlsx
+++ b/grupos/6APM - Estadisticos 2020.xlsx
@@ -152,7 +152,7 @@
     <t>Ortega Valle Manuel</t>
   </si>
   <si>
-    <t>Duran Amezcua Maria Angelica</t>
+    <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
     <t>Rodriguez Roman Marisol</t>
@@ -161,7 +161,7 @@
     <t>Herrera Serrano Mayra Iliana</t>
   </si>
   <si>
-    <t>Jimenez Nieto Enrique</t>
+    <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>NC</t>
